--- a/Frontend/Desktop/AAA/Common/Common.LibraryMessage/AAA_Message.xlsx
+++ b/Frontend/Desktop/AAA/Common/Common.LibraryMessage/AAA_Message.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
   <si>
     <t>Enum</t>
   </si>
@@ -58,6 +58,12 @@
   </si>
   <si>
     <t>Cảnh báo</t>
+  </si>
+  <si>
+    <t>Common_ThieuTruongThongTinBatBuoc</t>
+  </si>
+  <si>
+    <t>Thiếu thông tin bắt buộc</t>
   </si>
 </sst>
 </file>
@@ -439,7 +445,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
+      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -552,14 +558,19 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B7" s="2"/>
+      <c r="A7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="E7" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>case Enum.: message = MessageViResource.; break;</v>
+        <v>case Enum.Common_ThieuTruongThongTinBatBuoc: message = MessageViResource.Common_ThieuTruongThongTinBatBuoc; break;</v>
       </c>
       <c r="F7" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>case Enum.: message = MessageEnResource.; break;</v>
+        <v>case Enum.Common_ThieuTruongThongTinBatBuoc: message = MessageEnResource.Common_ThieuTruongThongTinBatBuoc; break;</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
